--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isoftsys\CodeCompetition\04.Doc\01.设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F95F5-812A-488C-A893-65F7744E776D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16860" windowHeight="7950" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7950" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="概览" sheetId="2" r:id="rId2"/>
     <sheet name="1.员工基础信息表" sheetId="3" r:id="rId3"/>
     <sheet name="系统角色" sheetId="5" r:id="rId4"/>
+    <sheet name="菜单项表" sheetId="6" r:id="rId5"/>
+    <sheet name="系统角色菜单配置表" sheetId="7" r:id="rId6"/>
+    <sheet name="项目组员工配置表" sheetId="8" r:id="rId7"/>
+    <sheet name="出入项目组记录表" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="252">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -606,19 +616,230 @@
   </si>
   <si>
     <t>remark</t>
+  </si>
+  <si>
+    <t>表序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrbp_menu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表用途</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单项信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否索引</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否分区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+  </si>
+  <si>
+    <t>varchar(50) NOT NULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+  </si>
+  <si>
+    <t>order_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(50) </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrbp_role_menu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色配置菜单信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应hrbp_roleb系统角色表主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单项ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应hrbp_menu菜单表主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrbp_projectTeam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工工号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep_tree</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息(比如: "2012-中软院-GENEX产品部")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_team</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内角色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrbp_projectTeamRecord</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工出入项目组信息记录表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组变更时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组员工配置信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,7 +850,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,150 +869,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,192 +925,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1143,255 +1070,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,9 +1090,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,6 +1116,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,111 +1185,53 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{AEDE2929-1D48-49DC-A489-B2962B4F0FB8}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1578,7 +1247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1886,540 +1561,539 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="9.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="9.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" ht="13.5" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A1:H4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="11">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="11">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="11">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="11">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="11">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="11">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="11">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="11">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="11">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="11">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="11">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="11">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="11">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="11">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="11">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="11">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="11">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="11">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="11">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="11">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="11">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2427,7 +2101,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2435,7 +2109,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2444,26 +2118,24 @@
       <c r="F27" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
@@ -2477,7 +2149,7 @@
     <col min="11" max="12" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2487,33 +2159,33 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2545,7 +2217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2569,7 +2241,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2593,7 +2265,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2611,11 +2283,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2637,7 +2309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2659,7 +2331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2681,7 +2353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2703,7 +2375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2723,7 +2395,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2743,7 +2415,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2765,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2787,7 +2459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2809,7 +2481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2831,7 +2503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2851,7 +2523,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2871,17 +2543,17 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="2"/>
@@ -2893,17 +2565,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="2"/>
@@ -2913,17 +2585,17 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="2"/>
@@ -2933,17 +2605,17 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="2"/>
@@ -2953,17 +2625,17 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="2"/>
@@ -2975,17 +2647,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="2"/>
@@ -2995,17 +2667,17 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="2"/>
@@ -3015,17 +2687,17 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="2"/>
@@ -3035,17 +2707,17 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="2"/>
@@ -3057,17 +2729,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="2"/>
@@ -3075,21 +2747,21 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="2"/>
@@ -3099,17 +2771,17 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="2"/>
@@ -3121,17 +2793,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="2"/>
@@ -3143,17 +2815,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="2"/>
@@ -3165,17 +2837,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E33" s="2"/>
@@ -3185,17 +2857,17 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E34" s="2"/>
@@ -3207,17 +2879,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="2"/>
@@ -3229,17 +2901,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="2"/>
@@ -3251,17 +2923,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="2"/>
@@ -3273,17 +2945,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="2"/>
@@ -3295,17 +2967,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="2"/>
@@ -3315,17 +2987,17 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E40" s="2"/>
@@ -3335,17 +3007,17 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E41" s="2"/>
@@ -3355,17 +3027,17 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="2"/>
@@ -3375,17 +3047,17 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E43" s="2"/>
@@ -3397,17 +3069,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E44" s="2"/>
@@ -3419,17 +3091,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E45" s="2"/>
@@ -3441,17 +3113,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E46" s="2"/>
@@ -3461,17 +3133,17 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>152</v>
       </c>
       <c r="E47" s="2"/>
@@ -3481,17 +3153,17 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E48" s="2"/>
@@ -3503,17 +3175,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E49" s="2"/>
@@ -3523,17 +3195,17 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E50" s="2"/>
@@ -3543,17 +3215,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" ht="41" customHeight="1" spans="1:10">
+    <row r="51" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E51" s="2"/>
@@ -3563,7 +3235,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3572,22 +3244,21 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -3596,7 +3267,7 @@
     <col min="10" max="10" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3604,33 +3275,33 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3662,23 +3333,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3686,81 +3357,81 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="2"/>
@@ -3768,137 +3439,137 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2"/>
@@ -3908,19 +3579,776 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28D541A-E385-44E6-99F2-C9C20DFF28BA}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655B768B-2DD0-45E4-BF2F-7A54758E26E1}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="12.625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12" style="40" customWidth="1"/>
+    <col min="5" max="9" width="9" style="40"/>
+    <col min="10" max="10" width="28.25" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFDBFFA-6BCD-4573-BEDE-2CF99AF04B39}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="43"/>
+    <col min="2" max="3" width="13.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F90A850-9898-47D4-A301-866E2B8B3B49}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="40"/>
+    <col min="10" max="10" width="5.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
+        <v>6</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9515" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,17 @@
     <sheet name="项目组员工配置表" sheetId="8" r:id="rId7"/>
     <sheet name="出入项目组记录表" sheetId="9" r:id="rId8"/>
     <sheet name="员工系统角色配置表" sheetId="10" r:id="rId9"/>
+    <sheet name="家庭信息" sheetId="11" r:id="rId10"/>
+    <sheet name="公司资格认证" sheetId="12" r:id="rId11"/>
+    <sheet name="个人风采" sheetId="13" r:id="rId12"/>
+    <sheet name="登陆信息" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -743,6 +747,304 @@
   </si>
   <si>
     <t>对应系统角色表id</t>
+  </si>
+  <si>
+    <t>S_2</t>
+  </si>
+  <si>
+    <t>family_information</t>
+  </si>
+  <si>
+    <t>birthdayDate</t>
+  </si>
+  <si>
+    <t>出生年月</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>isPartyMember</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否党员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0 ：是 1：否</t>
+    </r>
+  </si>
+  <si>
+    <t>heigh</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>currentHomeAddress</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>现居住地址</t>
+  </si>
+  <si>
+    <t>emergencyContact</t>
+  </si>
+  <si>
+    <t>紧急联系人</t>
+  </si>
+  <si>
+    <t>emergencyContactRelation</t>
+  </si>
+  <si>
+    <t>紧急联系人关系</t>
+  </si>
+  <si>
+    <t>emergencyContactAdress</t>
+  </si>
+  <si>
+    <t>紧急联系人住址</t>
+  </si>
+  <si>
+    <t>emergencyContactPhone</t>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>婚姻状态 是 ：0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否 ：1</t>
+    </r>
+  </si>
+  <si>
+    <t>childInformation</t>
+  </si>
+  <si>
+    <t>子女信息</t>
+  </si>
+  <si>
+    <t>wayToWork</t>
+  </si>
+  <si>
+    <t>上班方式</t>
+  </si>
+  <si>
+    <t>workingHour</t>
+  </si>
+  <si>
+    <t>上班路上时长</t>
+  </si>
+  <si>
+    <t>isbuyHouse</t>
+  </si>
+  <si>
+    <t>是否买房</t>
+  </si>
+  <si>
+    <t>dayOfBuyHouse</t>
+  </si>
+  <si>
+    <t>买房日期</t>
+  </si>
+  <si>
+    <t>propertyAddress</t>
+  </si>
+  <si>
+    <t>房产地址</t>
+  </si>
+  <si>
+    <t>S_3</t>
+  </si>
+  <si>
+    <t>company_qualification</t>
+  </si>
+  <si>
+    <t>公司资格认证表</t>
+  </si>
+  <si>
+    <t>qualificationName</t>
+  </si>
+  <si>
+    <t>资质名称</t>
+  </si>
+  <si>
+    <t>qualificationType</t>
+  </si>
+  <si>
+    <t>资质类型</t>
+  </si>
+  <si>
+    <t>certificationLevel</t>
+  </si>
+  <si>
+    <t>认证等级</t>
+  </si>
+  <si>
+    <t>passDate</t>
+  </si>
+  <si>
+    <t>通过日期</t>
+  </si>
+  <si>
+    <t>qualificationID</t>
+  </si>
+  <si>
+    <t>资质ID</t>
+  </si>
+  <si>
+    <t>S_4</t>
+  </si>
+  <si>
+    <t>personal_style</t>
+  </si>
+  <si>
+    <t>个人风采</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>喜欢的食物</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>喜欢的游戏</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>喜欢的运动</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>喜欢的书籍</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>喜欢的电影</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>喜欢的音乐</t>
+  </si>
+  <si>
+    <t>oneSentence</t>
+  </si>
+  <si>
+    <t>喜欢的一句话</t>
+  </si>
+  <si>
+    <t>dislike</t>
+  </si>
+  <si>
+    <t>不喜欢的</t>
+  </si>
+  <si>
+    <t>photosOfLife</t>
+  </si>
+  <si>
+    <t>生活照照片路径</t>
+  </si>
+  <si>
+    <t>S_5</t>
+  </si>
+  <si>
+    <t>login_information</t>
+  </si>
+  <si>
+    <t>登陆信息表</t>
+  </si>
+  <si>
+    <t>login_id</t>
+  </si>
+  <si>
+    <t>登陆id</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>pass_word</t>
+  </si>
+  <si>
+    <t>密码</t>
   </si>
 </sst>
 </file>
@@ -750,10 +1052,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -766,17 +1068,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color rgb="FFF2F2F2"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -799,71 +1099,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,6 +1122,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -890,7 +1161,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,40 +1229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,6 +1249,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -976,7 +1282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,13 +1324,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,49 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,37 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,62 +1460,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1179,6 +1479,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1290,53 +1627,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,6 +1659,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1372,6 +1681,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,15 +1723,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1407,183 +1731,207 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1604,7 +1952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1616,73 +1964,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1776,8 +2124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="304800" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,243 +2432,243 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="20"/>
-    <col min="3" max="3" width="9.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="9" style="28"/>
+    <col min="3" max="3" width="9.87962962962963" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.6296296296296" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" ht="13.5" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" ht="14.4" spans="1:8">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="32"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="32"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="32"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="32"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" ht="16.35" spans="1:8">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2339,6 +2687,1165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="20.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2348,286 +3855,286 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="15.6" spans="1:6">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="19">
+    <row r="2" ht="15.6" spans="1:6">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="19">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="19">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="19">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="19">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="19">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="19">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="19">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="19">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:6">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="19">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:6">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="19">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:6">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="19">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:6">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="19">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:6">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="19">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:6">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="19">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:6">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="19">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:6">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="19">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:6">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="19">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:6">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="19">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:6">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="19">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:6">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="19">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:6">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="19">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:6">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="19">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" ht="15.6" spans="1:6">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2649,1107 +4156,1107 @@
       <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="8.12962962962963" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="74.625" customWidth="1"/>
-    <col min="11" max="12" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="74.6296296296296" customWidth="1"/>
+    <col min="11" max="12" width="28.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="17" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10">
+      <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10">
+      <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10">
+      <c r="A23" s="14">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10">
+      <c r="A25" s="14">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10">
+      <c r="A26" s="14">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10">
+      <c r="A27" s="14">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10">
+      <c r="A28" s="14">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="18" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10">
+      <c r="A29" s="14">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10">
+      <c r="A30" s="14">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10">
+      <c r="A31" s="14">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10">
+      <c r="A32" s="14">
         <v>29</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="10">
+      <c r="A33" s="14">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="10">
+      <c r="A34" s="14">
         <v>31</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="10">
+      <c r="A35" s="14">
         <v>32</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="10">
+      <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="10">
+      <c r="A37" s="14">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="10">
+      <c r="A38" s="14">
         <v>35</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10">
+      <c r="A39" s="14">
         <v>36</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10">
+      <c r="A40" s="14">
         <v>37</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10">
+      <c r="A41" s="14">
         <v>38</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="10">
+      <c r="A42" s="14">
         <v>39</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="10">
+      <c r="A43" s="14">
         <v>40</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="10">
+      <c r="A44" s="14">
         <v>41</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="s">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="10">
+      <c r="A45" s="14">
         <v>42</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="10">
+      <c r="A46" s="14">
         <v>43</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="10">
+      <c r="A47" s="14">
         <v>44</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10">
+      <c r="A48" s="14">
         <v>45</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="10">
+      <c r="A49" s="14">
         <v>46</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="10">
+      <c r="A50" s="14">
         <v>47</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:10">
-      <c r="A51" s="10">
+      <c r="A51" s="14">
         <v>48</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14">
         <v>0</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="13" t="s">
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="21" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3769,336 +5276,336 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="42.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="5.37962962962963" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12">
+      <c r="A4" s="20">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:10">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="12">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" ht="28.8" spans="1:10">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="12">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" ht="28.8" spans="1:10">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="12">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:10">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4120,187 +5627,187 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9.12962962962963" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4322,124 +5829,124 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
-    <col min="5" max="9" width="9" style="7"/>
-    <col min="10" max="10" width="28.25" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="12.6296296296296" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" customWidth="1"/>
+    <col min="5" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="28.25" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4462,186 +5969,186 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="3" width="13.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="3" width="13.8796296296296" style="16" customWidth="1"/>
+    <col min="4" max="4" width="44.3796296296296" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4662,205 +6169,205 @@
       <selection activeCell="A1" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9" style="7"/>
-    <col min="10" max="10" width="5.75" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.1296296296296" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" style="16" customWidth="1"/>
+    <col min="4" max="4" width="42" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="5.75" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4881,125 +6388,125 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>239</v>
       </c>
     </row>

--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isoftsys\CodeCompetition\04.Doc\01.设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFFC7D5-4E48-4899-BD38-BEC50B92B0CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9510" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19770" windowHeight="9390" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="概览" sheetId="2" r:id="rId2"/>
     <sheet name="1.员工基础信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="系统角色" sheetId="5" r:id="rId4"/>
+    <sheet name="系统角色表" sheetId="5" r:id="rId4"/>
     <sheet name="菜单项表" sheetId="6" r:id="rId5"/>
     <sheet name="系统角色菜单配置表" sheetId="7" r:id="rId6"/>
     <sheet name="项目组员工配置表" sheetId="8" r:id="rId7"/>
     <sheet name="出入项目组记录表" sheetId="9" r:id="rId8"/>
-    <sheet name="员工系统角色配置表" sheetId="10" r:id="rId9"/>
-    <sheet name="家庭信息" sheetId="11" r:id="rId10"/>
-    <sheet name="公司资格认证" sheetId="12" r:id="rId11"/>
-    <sheet name="个人风采" sheetId="13" r:id="rId12"/>
-    <sheet name="登陆信息" sheetId="14" r:id="rId13"/>
+    <sheet name="家庭信息" sheetId="11" r:id="rId9"/>
+    <sheet name="公司资格认证" sheetId="12" r:id="rId10"/>
+    <sheet name="个人风采" sheetId="13" r:id="rId11"/>
+    <sheet name="登陆信息" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -701,6 +694,12 @@
     <t>部门信息(比如: "2012-中软院-GENEX产品部")</t>
   </si>
   <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
     <t>项目组名称</t>
   </si>
   <si>
@@ -720,33 +719,6 @@
   </si>
   <si>
     <t>项目组变更时间</t>
-  </si>
-  <si>
-    <t>hrbp_staffinfo_role</t>
-  </si>
-  <si>
-    <t>员工系统角色配置表</t>
-  </si>
-  <si>
-    <t>employeeid</t>
-  </si>
-  <si>
-    <t>varchar(24)</t>
-  </si>
-  <si>
-    <t>员工id</t>
-  </si>
-  <si>
-    <t>对应员工信息表di</t>
-  </si>
-  <si>
-    <t>int(10)</t>
-  </si>
-  <si>
-    <t>系统角色id</t>
-  </si>
-  <si>
-    <t>对应系统角色表id</t>
   </si>
   <si>
     <t>S_2</t>
@@ -1046,20 +1018,18 @@
   <si>
     <t>密码</t>
   </si>
-  <si>
-    <t>team_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>team_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,7 +1053,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1102,26 +1072,150 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,12 +1248,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1323,16 +1603,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1867,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1360,32 +1885,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1414,6 +1942,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1424,15 +1979,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,62 +2002,79 @@
     <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1527,13 +2090,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1545,8 +2102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="182880"/>
-          <a:ext cx="304800" cy="316230"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,1736 +2398,1268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="9.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="26"/>
+    <col min="1" max="2" width="9" style="28"/>
+    <col min="3" max="3" width="9.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" ht="13.5" spans="1:8">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="30" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" ht="17.25" spans="1:8">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A1:H4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J22"/>
+      <selection activeCell="A1" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="B2:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="C11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="C13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" ht="16.5" spans="1:6">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:6">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:6">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:6">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:6">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:6">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:6">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
@@ -3584,43 +3673,43 @@
     <col min="11" max="12" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -3652,1025 +3741,1025 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+    <row r="4" spans="1:10">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="23" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+    <row r="7" spans="1:10">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+    <row r="8" spans="1:10">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+    <row r="10" spans="1:10">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
+    <row r="11" spans="1:10">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
+    <row r="14" spans="1:10">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+    <row r="15" spans="1:10">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
+    <row r="16" spans="1:10">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
+    <row r="17" spans="1:10">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
+    <row r="20" spans="1:10">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
+    <row r="24" spans="1:10">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
+    <row r="28" spans="1:10">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="24" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
+    <row r="29" spans="1:10">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
+    <row r="31" spans="1:10">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
+    <row r="32" spans="1:10">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
+    <row r="33" spans="1:10">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="13">
+    <row r="35" spans="1:10">
+      <c r="A35" s="18">
         <v>32</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="13">
+    <row r="36" spans="1:10">
+      <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
+    <row r="37" spans="1:10">
+      <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
+    <row r="38" spans="1:10">
+      <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
+    <row r="39" spans="1:10">
+      <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="18">
         <v>37</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="18">
         <v>39</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="13">
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="13">
+    <row r="44" spans="1:10">
+      <c r="A44" s="18">
         <v>41</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="13">
+    <row r="45" spans="1:10">
+      <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="13">
+    <row r="46" spans="1:10">
+      <c r="A46" s="18">
         <v>43</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="13">
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="13">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="13">
+    <row r="49" spans="1:10">
+      <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="13">
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13">
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" ht="41.1" customHeight="1" spans="1:10">
+      <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18">
         <v>0</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="19" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="21" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4679,21 +4768,22 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -4702,41 +4792,41 @@
     <col min="10" max="10" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -4768,359 +4858,360 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="15" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="15" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5135,14 +5226,14 @@
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5154,15 +5245,15 @@
       <c r="D5" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5174,15 +5265,15 @@
       <c r="D6" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5194,15 +5285,15 @@
       <c r="D7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5214,111 +5305,112 @@
       <c r="D8" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="12.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12" style="15" customWidth="1"/>
-    <col min="5" max="9" width="9" style="15"/>
-    <col min="10" max="10" width="28.25" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" customWidth="1"/>
+    <col min="5" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="28.25" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5331,16 +5423,16 @@
         <v>211</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5352,12 +5444,12 @@
       <c r="D5" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5366,100 +5458,101 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="3" width="13.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="15" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="15" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="3" width="13.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5471,17 +5564,17 @@
       <c r="D4" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5493,19 +5586,19 @@
       <c r="D5" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>104</v>
@@ -5513,35 +5606,35 @@
       <c r="D6" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+        <v>224</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5551,115 +5644,116 @@
         <v>104</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="42" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="15" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9" style="15"/>
-    <col min="10" max="10" width="5.75" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="8.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
+    <col min="8" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5671,15 +5765,15 @@
       <c r="D4" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5691,19 +5785,19 @@
       <c r="D5" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>104</v>
@@ -5711,55 +5805,55 @@
       <c r="D6" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+        <v>224</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+        <v>230</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5769,161 +5863,496 @@
         <v>104</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>237</v>
       </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\CodeCompetition\04.Doc\01.设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,13 +24,14 @@
     <sheet name="公司资格认证" sheetId="12" r:id="rId10"/>
     <sheet name="个人风采" sheetId="13" r:id="rId11"/>
     <sheet name="登陆信息" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="333">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -1018,18 +1024,141 @@
   <si>
     <t>密码</t>
   </si>
+  <si>
+    <t>S_6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级关系权限树表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_level_rla</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeID</t>
+  </si>
+  <si>
+    <t>nodePath</t>
+  </si>
+  <si>
+    <t>nodeName</t>
+  </si>
+  <si>
+    <t>isLeafNode</t>
+  </si>
+  <si>
+    <t>isProjectNode</t>
+  </si>
+  <si>
+    <t>ProjectTeamID</t>
+  </si>
+  <si>
+    <t>int(50)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(500)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(100)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tinyint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tinyint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+  </si>
+  <si>
+    <t>节点路径</t>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>是否是叶子节点</t>
+  </si>
+  <si>
+    <t>是否是项目组节点</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,7 +1182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1072,150 +1201,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,198 +1260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1603,258 +1429,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1866,9 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1885,25 +1466,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1911,9 +1492,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,6 +1520,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1969,112 +1589,66 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2398,289 +1972,288 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="9.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="28"/>
+    <col min="1" max="2" width="9" style="26"/>
+    <col min="3" max="3" width="9.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" ht="13.5" spans="1:8">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="41" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="41" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="41" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="41" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A1:H4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J9"/>
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2690,212 +2263,211 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2905,271 +2477,270 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3179,487 +2750,700 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="27">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="27">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="27">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="27">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="27">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="27">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="27">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="27">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="27">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="27">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="27">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="27">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="27">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="27">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="27">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="27">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="27">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="27">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="27">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="27">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="27">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="27">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="27">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
@@ -3673,1093 +3457,1093 @@
     <col min="11" max="12" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="18">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="18">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="18">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="18">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="18">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="18">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="18">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="18">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="18">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="18">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="18">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="18">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="18">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="18">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="18">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="18">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="26" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="18">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
         <v>26</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="18">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
         <v>27</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="18">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="17">
         <v>28</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="18">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
         <v>29</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="18">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
         <v>30</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="18">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
         <v>31</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="18">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
         <v>32</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="18">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
         <v>33</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="18">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="17">
         <v>34</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="18">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="17">
         <v>35</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="18">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
         <v>36</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="18">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
         <v>37</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="18">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
         <v>38</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="18">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
         <v>39</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="18">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="17">
         <v>40</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="18">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="17">
         <v>41</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="18">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="17">
         <v>42</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="18">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="17">
         <v>43</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="18">
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="17">
         <v>44</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="18">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="17">
         <v>45</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="18">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="17">
         <v>46</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="18">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="17">
         <v>47</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" ht="41.1" customHeight="1" spans="1:10">
-      <c r="A51" s="18">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17">
         <v>48</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18">
+      <c r="E51" s="17"/>
+      <c r="F51" s="17">
         <v>0</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="21" t="s">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4768,22 +4552,21 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -4792,664 +4575,662 @@
     <col min="10" max="10" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="20">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="20">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="20">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="20">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="20">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="20">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="20">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="20">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="20">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="20">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="20">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12" style="11" customWidth="1"/>
-    <col min="5" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="28.25" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="12.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12" style="10" customWidth="1"/>
+    <col min="5" max="9" width="9" style="10"/>
+    <col min="10" max="10" width="28.25" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5458,446 +5239,443 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="3" width="13.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="3" width="13.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9.75" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="42" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="5.75" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="8.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="42" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
+    <col min="8" max="9" width="9" style="10"/>
+    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5907,452 +5685,452 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="8">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="8">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="8">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\CodeCompetition\04.Doc\01.设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" firstSheet="7" activeTab="12"/>
+    <workbookView windowWidth="22943" windowHeight="9924" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -25,13 +20,14 @@
     <sheet name="个人风采" sheetId="13" r:id="rId11"/>
     <sheet name="登陆信息" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="部门信息表" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -1026,40 +1022,33 @@
   </si>
   <si>
     <t>S_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_level_rla</t>
   </si>
   <si>
     <t>层级关系权限树表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_level_rla</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>nodeID</t>
   </si>
   <si>
+    <t>int(50)</t>
+  </si>
+  <si>
+    <t>节点ID</t>
+  </si>
+  <si>
     <t>nodePath</t>
   </si>
   <si>
-    <t>nodeName</t>
-  </si>
-  <si>
-    <t>isLeafNode</t>
-  </si>
-  <si>
-    <t>isProjectNode</t>
-  </si>
-  <si>
-    <t>ProjectTeamID</t>
-  </si>
-  <si>
-    <t>int(50)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>varchar</t>
     </r>
     <r>
@@ -1067,15 +1056,25 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(500)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点路径</t>
+  </si>
+  <si>
+    <t>nodeName</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>varchar</t>
     </r>
     <r>
@@ -1083,15 +1082,25 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(100)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名称</t>
+  </si>
+  <si>
+    <t>isLeafNode</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>tinyint</t>
     </r>
     <r>
@@ -1099,31 +1108,31 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(1)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>tinyint</t>
-    </r>
+  </si>
+  <si>
+    <t>是否是叶子节点</t>
+  </si>
+  <si>
+    <t>isProjectNode</t>
+  </si>
+  <si>
+    <t>是否是项目组节点</t>
+  </si>
+  <si>
+    <t>ProjectTeamID</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>(1)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>int</t>
     </r>
     <r>
@@ -1131,40 +1140,84 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点ID</t>
-  </si>
-  <si>
-    <t>节点路径</t>
-  </si>
-  <si>
-    <t>节点名称</t>
-  </si>
-  <si>
-    <t>是否是叶子节点</t>
-  </si>
-  <si>
-    <t>是否是项目组节点</t>
+  </si>
+  <si>
+    <t>S_10</t>
+  </si>
+  <si>
+    <t>bu_du_pdu</t>
+  </si>
+  <si>
+    <t>部门信息表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>自增序列</t>
+  </si>
+  <si>
+    <t>BU，如2012</t>
+  </si>
+  <si>
+    <t>DU，如中央软件院（2012-中央软件院）</t>
+  </si>
+  <si>
+    <t>PDU，eg：GENEX（2012-中央软件院-GENEX产品部）</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>如西安、南京、深圳、成都</t>
+  </si>
+  <si>
+    <t>deliveryDep</t>
+  </si>
+  <si>
+    <t>交付部</t>
+  </si>
+  <si>
+    <t>如交付二部</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1180,18 +1233,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color theme="0" tint="-0.0499893185216834"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
@@ -1200,34 +1254,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,13 +1408,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1260,12 +1431,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1280,6 +1637,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1406,15 +1787,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,76 +1808,310 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1514,106 +2134,142 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -1624,9 +2280,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -1640,15 +2294,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1676,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="304800" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,2578 +2623,2798 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="9.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="26"/>
+    <col min="1" max="2" width="9" style="33"/>
+    <col min="3" max="3" width="9.88888888888889" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" ht="14.4" spans="1:8">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="30" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" ht="16.35" spans="1:8">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A1:H4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J9"/>
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="20.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="13.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C6" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C8" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="57.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.2" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" ht="16.2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="6" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="12.7777777777778" customWidth="1"/>
+    <col min="4" max="6" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" ht="15.6" spans="1:6">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+    <row r="2" ht="15.6" spans="1:6">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:6">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:6">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:6">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:6">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:6">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:6">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:6">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:6">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:6">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:6">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:6">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:6">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="25">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:6">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:6">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:6">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" ht="15.6" spans="1:6">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="8.11111111111111" customWidth="1"/>
+    <col min="2" max="2" width="27.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="74.625" customWidth="1"/>
-    <col min="11" max="12" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="7.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="5.77777777777778" customWidth="1"/>
+    <col min="8" max="9" width="9.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="74.6666666666667" customWidth="1"/>
+    <col min="11" max="12" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+    <row r="4" spans="1:10">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="23" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+    <row r="7" spans="1:10">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+    <row r="8" spans="1:10">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+    <row r="9" spans="1:10">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+    <row r="10" spans="1:10">
+      <c r="A10" s="23">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+    <row r="11" spans="1:10">
+      <c r="A11" s="23">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="23">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+    <row r="14" spans="1:10">
+      <c r="A14" s="23">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+    <row r="15" spans="1:10">
+      <c r="A15" s="23">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+    <row r="16" spans="1:10">
+      <c r="A16" s="23">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+    <row r="17" spans="1:10">
+      <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="23">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+    <row r="20" spans="1:10">
+      <c r="A20" s="23">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="23">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="23">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
+    <row r="24" spans="1:10">
+      <c r="A24" s="23">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23">
         <v>22</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="17">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="23">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="23">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="17">
+    <row r="28" spans="1:10">
+      <c r="A28" s="23">
         <v>25</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="24" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
+    <row r="29" spans="1:10">
+      <c r="A29" s="23">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="17">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="17">
+    <row r="31" spans="1:10">
+      <c r="A31" s="23">
         <v>28</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="17">
+    <row r="32" spans="1:10">
+      <c r="A32" s="23">
         <v>29</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="17">
+    <row r="33" spans="1:10">
+      <c r="A33" s="23">
         <v>30</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="17">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="23">
         <v>31</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="17">
+    <row r="35" spans="1:10">
+      <c r="A35" s="23">
         <v>32</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="17">
+    <row r="36" spans="1:10">
+      <c r="A36" s="23">
         <v>33</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="17">
+    <row r="37" spans="1:10">
+      <c r="A37" s="23">
         <v>34</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="17">
+    <row r="38" spans="1:10">
+      <c r="A38" s="23">
         <v>35</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="17">
+    <row r="39" spans="1:10">
+      <c r="A39" s="23">
         <v>36</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="17">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="23">
         <v>37</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="17">
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23">
         <v>38</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="17">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="23">
         <v>39</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="17">
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="23">
         <v>40</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="17">
+    <row r="44" spans="1:10">
+      <c r="A44" s="23">
         <v>41</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="17">
+    <row r="45" spans="1:10">
+      <c r="A45" s="23">
         <v>42</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="17">
+    <row r="46" spans="1:10">
+      <c r="A46" s="23">
         <v>43</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="17">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="23">
         <v>44</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="17">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="23">
         <v>45</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="17">
+    <row r="49" spans="1:10">
+      <c r="A49" s="23">
         <v>46</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="17">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="23">
         <v>47</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17">
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" ht="41.1" customHeight="1" spans="1:10">
+      <c r="A51" s="23">
         <v>48</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17">
+      <c r="E51" s="23"/>
+      <c r="F51" s="23">
         <v>0</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="19" t="s">
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="26" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4552,685 +5423,688 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="42.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="5.33333333333333" customWidth="1"/>
+    <col min="10" max="10" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+    <row r="4" spans="1:10">
+      <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+    <row r="5" spans="1:10">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:10">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" ht="28.8" spans="1:10">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" ht="28.8" spans="1:10">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:10">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="25">
         <v>11</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="10" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9.11111111111111" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.2222222222222" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.2222222222222" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.77777777777778" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.77777777777778" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="12.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12" style="10" customWidth="1"/>
-    <col min="5" max="9" width="9" style="10"/>
-    <col min="10" max="10" width="28.25" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" customWidth="1"/>
+    <col min="5" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="28.2222222222222" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5239,898 +6113,901 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="3" width="13.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="10" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="3" width="13.8888888888889" style="16" customWidth="1"/>
+    <col min="4" max="4" width="44.3333333333333" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.77777777777778" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.77777777777778" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="42" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9" style="10"/>
-    <col min="10" max="10" width="5.75" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.8888888888889" style="16" customWidth="1"/>
+    <col min="4" max="4" width="42" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.77777777777778" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="5.77777777777778" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD22"/>
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
+++ b/04.Doc/01.设计/骨干管理系统_路人甲_数据库字典.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isoftsys\CodeCompetition\04.Doc\01.设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\CodeCompetition\04.Doc\01.设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2912E9-3C3D-4BC9-8911-CF799502F3AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -25,15 +24,18 @@
     <sheet name="公司资格认证" sheetId="12" r:id="rId10"/>
     <sheet name="个人风采" sheetId="13" r:id="rId11"/>
     <sheet name="登陆信息" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
-    <sheet name="部门信息表" sheetId="16" r:id="rId14"/>
+    <sheet name="层级信息表" sheetId="15" r:id="rId13"/>
+    <sheet name="项目组层级表" sheetId="17" r:id="rId14"/>
+    <sheet name="PO层级表" sheetId="18" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId16"/>
+    <sheet name="部门信息表" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="397">
   <si>
     <t>骨干考核系统
 数据字典</t>
@@ -1012,126 +1014,13 @@
     <t>S_6</t>
   </si>
   <si>
-    <t>sys_level_rla</t>
-  </si>
-  <si>
-    <t>层级关系权限树表</t>
-  </si>
-  <si>
     <t>nodeID</t>
   </si>
   <si>
-    <t>int(50)</t>
-  </si>
-  <si>
-    <t>节点ID</t>
-  </si>
-  <si>
     <t>nodePath</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(500)</t>
-    </r>
-  </si>
-  <si>
-    <t>节点路径</t>
-  </si>
-  <si>
     <t>nodeName</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(100)</t>
-    </r>
-  </si>
-  <si>
-    <t>节点名称</t>
-  </si>
-  <si>
-    <t>isLeafNode</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tinyint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
-    <t>是否是叶子节点</t>
-  </si>
-  <si>
-    <t>isProjectNode</t>
-  </si>
-  <si>
-    <t>是否是项目组节点</t>
-  </si>
-  <si>
-    <t>ProjectTeamID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(10)</t>
-    </r>
   </si>
   <si>
     <t>S_10</t>
@@ -1280,12 +1169,367 @@
     <t>出入项目组时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>relationID</t>
+  </si>
+  <si>
+    <t>levelIndex</t>
+  </si>
+  <si>
+    <t>levelIndexID</t>
+  </si>
+  <si>
+    <t>levelIndexName</t>
+  </si>
+  <si>
+    <t>operationAllow</t>
+  </si>
+  <si>
+    <t>mms_relation_info</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级信息表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(20)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tinyint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>关系I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系层级序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>关系层级I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系层级名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是可操作层级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeType</t>
+  </si>
+  <si>
+    <t>isTeamNode</t>
+  </si>
+  <si>
+    <t>teamID</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是项目组节点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项目组I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组层级表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mms_relation_team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mms_relation_po</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO层级表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是PO节点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>POID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectID</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>pmID</t>
+  </si>
+  <si>
+    <t>pmName</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>int(20)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_9</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mms_project_manage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组管理表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1593,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1566,7 +1824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,6 +1933,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1682,18 +1943,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,10 +1972,25 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,16 +2005,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1775,7 +2054,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1811,7 +2090,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2143,46 +2422,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
@@ -2230,12 +2509,12 @@
       <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2244,12 +2523,12 @@
       <c r="C10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2258,12 +2537,12 @@
       <c r="C11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2292,12 +2571,12 @@
       <c r="C14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -2306,12 +2585,12 @@
       <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -2320,12 +2599,12 @@
       <c r="C16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -2334,12 +2613,12 @@
       <c r="C17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -2390,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2413,31 +2692,31 @@
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -2604,7 +2883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2627,31 +2906,31 @@
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -2878,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2900,31 +3179,31 @@
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3071,11 +3350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3095,31 +3374,31 @@
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="D1" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3158,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>312</v>
+        <v>342</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>347</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -3180,15 +3459,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>336</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -3200,13 +3481,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>318</v>
+        <v>337</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>349</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3220,13 +3501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>321</v>
+        <v>338</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3240,13 +3521,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>323</v>
+        <v>339</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>351</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -3254,26 +3535,6 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3282,12 +3543,718 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="62">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="62">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
+        <v>4</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D14" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="62">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="62">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
+        <v>4</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="62">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="62">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
+        <v>4</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="62">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="62">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="62">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,36 +4272,36 @@
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="D1" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3371,13 +4338,13 @@
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -3405,7 +4372,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -3425,7 +4392,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -3445,19 +4412,19 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3465,19 +4432,19 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3485,7 +4452,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,31 +4796,31 @@
       <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -4890,7 +5857,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>64</v>
@@ -4921,7 +5888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4945,31 +5912,31 @@
       <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
@@ -5267,7 +6234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,31 +6263,31 @@
       <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -5468,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5494,31 +6461,31 @@
       <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -5607,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5635,31 +6602,31 @@
       <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="D1" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -5757,14 +6724,14 @@
       <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>343</v>
+      <c r="B7" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>344</v>
+      <c r="D7" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -5797,8 +6764,8 @@
       <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>345</v>
+      <c r="B9" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>104</v>
@@ -5817,8 +6784,8 @@
       <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>346</v>
+      <c r="B10" s="36" t="s">
+        <v>331</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>104</v>
@@ -5865,10 +6832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5894,31 +6861,31 @@
       <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="D1" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -6016,14 +6983,14 @@
       <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>343</v>
+      <c r="B7" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>344</v>
+      <c r="D7" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -6056,8 +7023,8 @@
       <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>345</v>
+      <c r="B9" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>104</v>
@@ -6076,8 +7043,8 @@
       <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>346</v>
+      <c r="B10" s="36" t="s">
+        <v>331</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>104</v>
@@ -6116,14 +7083,14 @@
       <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>349</v>
+      <c r="B12" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -6143,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6166,31 +7133,31 @@
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
